--- a/WorkBot/main/backend/ordering/Completed Orders/Performance Food/Performance Food_Easthill_20250620.xlsx
+++ b/WorkBot/main/backend/ordering/Completed Orders/Performance Food/Performance Food_Easthill_20250620.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>16.09</t>
+          <t>48.27</t>
         </is>
       </c>
     </row>
@@ -877,6 +877,60 @@
       <c r="E17" t="inlineStr">
         <is>
           <t>9.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AV906</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Swiss (Sliced)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DV584</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sweet Encore - Key Lime Pie</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>62.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>62.50</t>
         </is>
       </c>
     </row>
